--- a/data/trans_camb/P5_5-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_5-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>16,79</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>7,4</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 21,58</t>
+          <t>-7,77; 47,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 13,43</t>
+          <t>-20,56; 16,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 13,36</t>
+          <t>-8,64; 25,74</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>38,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>-2,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>17,68%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-29,77; 60,87</t>
+          <t>-14,61; 194,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,23; 40,65</t>
+          <t>-42,52; 51,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 36,94</t>
+          <t>-17,86; 81,99</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,69</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 10,19</t>
+          <t>-11,91; 13,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 8,62</t>
+          <t>-10,15; 11,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 7,0</t>
+          <t>-7,23; 9,22</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,44%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>1,42%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 21,43</t>
+          <t>-21,22; 29,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 20,38</t>
+          <t>-19,71; 27,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 15,66</t>
+          <t>-14,1; 20,89</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-0,1</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 7,93</t>
+          <t>-13,22; 13,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 9,48</t>
+          <t>-10,83; 10,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 5,68</t>
+          <t>-8,58; 8,35</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,14%</t>
+          <t>-0,81%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,88%</t>
+          <t>-0,24%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,9; 20,18</t>
+          <t>-27,18; 38,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 26,33</t>
+          <t>-23,48; 29,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 14,99</t>
+          <t>-18,17; 22,32</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 7,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 5,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 4,63</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 15,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 13,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 10,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-6,49; 12,19</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-6,71; 7,7</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,76; 6,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5,69%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-12,42; 28,51</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-14,82; 19,97</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-9,69; 16,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P5_5-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_5-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>16,79</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,14</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,4</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>11.70281801991137</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.8401722528402267</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.132940999249957</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,77; 47,54</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-20,56; 16,54</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,64; 25,74</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.60421764478155</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-20.52534497928266</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-11.68743415713168</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>38,87%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,81%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>17,68%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>42.1404785047398</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.33387562903777</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>22.4734507770054</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-14,61; 194,47</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-42,52; 51,12</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-17,86; 81,99</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.2708930601900825</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.02066893935061914</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.1226757362866991</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2385149779253262</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.4041429498766934</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2268969609644671</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,91; 13,05</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,15; 11,26</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,23; 9,22</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1.606444799489001</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.500448172696808</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.720541886781499</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,76%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,14%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,42%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.866368531062085</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.5676567240706643</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.6263320905124825</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-21,22; 29,26</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-19,71; 27,22</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-14,1; 20,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.02875531167937</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.06556474331925</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.444717403617588</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,36</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.27116501002268</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.85787601354755</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.086931172005047</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-13,22; 13,96</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,83; 10,24</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-8,58; 8,35</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.03669575459334894</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.01232398804091089</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.0129453560118615</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,81%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,24%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.2570410051619241</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2045651348811577</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1659755720643435</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-27,18; 38,77</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-23,48; 29,5</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-18,17; 22,32</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.232117988135849</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.2854933875857983</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1834061907447173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.496855861950386</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.7185720939187124</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>1.118879833148606</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-12.35912719826969</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-10.79854466470178</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-7.637529072691489</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>16.34045284293721</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>11.25801854271126</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>9.772527649913322</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.03356741433161439</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.01777158301823907</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.02646621953619431</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2473577993169302</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2315999833996878</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1614678437066207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-6,49; 12,19</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-6,71; 7,7</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-4,76; 6,96</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.4329535358677918</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.303358697331801</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.2627022821025304</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>5,69%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>0,3%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.260319537603566</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.4853721265735023</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.8576533373125084</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-12,42; 28,51</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-14,82; 19,97</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-9,69; 16,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.222726822777242</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.202729582738372</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.227783513933504</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>10.5388126397629</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.888680877892404</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>6.535300230646186</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.02656681136436275</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.0112889439869974</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.01903227176210515</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1585024567418303</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1352450434747257</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1105709390055884</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.2435244930635575</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.2004390323424162</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1550264998576042</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
